--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\JDBC_2020_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JDBC\JDBC_2020_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A398EA7-B406-46F0-8936-6255696B446C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -59,67 +60,55 @@
     <t>P</t>
   </si>
   <si>
-    <t>CASTILLO CASTILLO FABRIZIO JULIO</t>
-  </si>
-  <si>
-    <t>PAUCAR MENESES JEREMY ALION</t>
-  </si>
-  <si>
-    <t>PINTO LOPEZ GIRO ALEXANDRO</t>
-  </si>
-  <si>
-    <t>ROSADO SOTOMAYOR KEVIN</t>
-  </si>
-  <si>
     <t>MA y JU: 8-12 H</t>
   </si>
   <si>
-    <t>APAGUEÑO FASHE VERA LUCIA</t>
-  </si>
-  <si>
-    <t>EGUSQUIZA TARAZONA CRISTIAN</t>
-  </si>
-  <si>
-    <t>GONZALES CANCHARI ANGIE JAZMIN</t>
-  </si>
-  <si>
-    <t>GUTIERREZ ESPINOZA RICARDO RUBEN</t>
-  </si>
-  <si>
-    <t>LOAYZA PIZARRO FERNANDO GONZALO</t>
-  </si>
-  <si>
-    <t>MANRIQUE OBREGON JHONNY ALBERTO</t>
-  </si>
-  <si>
-    <t>MATTA DE LA CRUZ PATRICIA</t>
-  </si>
-  <si>
-    <t>ÑONTOL LOZANO RAFAEL SANTIAGO</t>
-  </si>
-  <si>
-    <t>PONTE VIDALES HANS RANDALL</t>
-  </si>
-  <si>
     <t>[M5-JAVAE] JAVA - DESARROLLO DE APLICACIONES DE ESCRITORIO</t>
   </si>
   <si>
-    <t>30.ENE.2020</t>
-  </si>
-  <si>
-    <t>06.FEB.2020</t>
-  </si>
-  <si>
-    <t>04.FEB.2020</t>
-  </si>
-  <si>
-    <t>11.FEB.2020</t>
+    <t>ALBORNOZ MENDEZ WILLIAMS HECTOR</t>
+  </si>
+  <si>
+    <t>CORTEGANA VILLEGAS EDWAR MARTIN</t>
+  </si>
+  <si>
+    <t>FLORES GUTIERREZ ALDER NICK</t>
+  </si>
+  <si>
+    <t>HURTADO LARA SATURNINO</t>
+  </si>
+  <si>
+    <t>LACTAYO DE LA TORRE HERNAN JESUS</t>
+  </si>
+  <si>
+    <t>MELENDEZ ALVINAGORTA MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MINAYA LEON HARRY JOHNNY</t>
+  </si>
+  <si>
+    <t>MONTES PEREZ PIERRE SAUL</t>
+  </si>
+  <si>
+    <t>RAYMUNDO QUIJADA ALFREDO FERNANDO</t>
+  </si>
+  <si>
+    <t>Salazar Hizen Marco Antonio</t>
+  </si>
+  <si>
+    <t>TACUNA CALDERON LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>TOLEDO ZAVALA ALEX ALONSO</t>
+  </si>
+  <si>
+    <t>WONG SEBASTIAN NICOLAS LUIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,20 +632,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
@@ -665,7 +654,7 @@
     <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -716,7 +705,7 @@
         <v>43872</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,35 +721,23 @@
       <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,14 +745,12 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -784,157 +759,111 @@
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,20 +871,14 @@
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -967,35 +890,23 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JDBC\JDBC_2020_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A398EA7-B406-46F0-8936-6255696B446C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5806B455-84D0-4664-8FA9-3043C219F98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>NRO</t>
   </si>
@@ -60,12 +60,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>MA y JU: 8-12 H</t>
-  </si>
-  <si>
-    <t>[M5-JAVAE] JAVA - DESARROLLO DE APLICACIONES DE ESCRITORIO</t>
-  </si>
-  <si>
     <t>ALBORNOZ MENDEZ WILLIAMS HECTOR</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>RAYMUNDO QUIJADA ALFREDO FERNANDO</t>
   </si>
   <si>
-    <t>Salazar Hizen Marco Antonio</t>
-  </si>
-  <si>
     <t>TACUNA CALDERON LUIS ALBERTO</t>
   </si>
   <si>
@@ -103,6 +94,27 @@
   </si>
   <si>
     <t>WONG SEBASTIAN NICOLAS LUIS</t>
+  </si>
+  <si>
+    <t>SALAZAR HIZEN MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>13.SET.20</t>
+  </si>
+  <si>
+    <t>[S6-JAESC] JAVA DESARROLO APLICACIONES DE ESCRITORIO - ON LINE</t>
+  </si>
+  <si>
+    <t>DO 08-14 Hrs</t>
+  </si>
+  <si>
+    <t>20.SET.20</t>
+  </si>
+  <si>
+    <t>27.SET.20</t>
+  </si>
+  <si>
+    <t>04.OCT.20</t>
   </si>
 </sst>
 </file>
@@ -636,10 +648,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +666,7 @@
     <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -696,16 +708,16 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="11">
-        <v>202001</v>
-      </c>
-      <c r="D7" s="12">
-        <v>43889</v>
-      </c>
-      <c r="E7" s="12">
-        <v>43872</v>
+        <v>202009</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,17 +733,25 @@
       <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -745,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -759,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -773,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -787,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -801,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -815,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -829,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -843,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -857,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -871,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -885,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -899,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -907,16 +927,6 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>14</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -926,7 +936,7 @@
     <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JDBC\JDBC_2020_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5806B455-84D0-4664-8FA9-3043C219F98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A95E01-A195-404F-ABA1-69440F1E91C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>NRO</t>
   </si>
@@ -651,7 +651,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,9 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -770,7 +772,9 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -784,7 +788,9 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -798,7 +804,9 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -812,7 +820,9 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -826,7 +836,9 @@
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
@@ -840,7 +852,9 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
@@ -854,7 +868,9 @@
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
@@ -868,7 +884,9 @@
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -896,7 +914,9 @@
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -910,7 +930,9 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -924,7 +946,9 @@
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JDBC\JDBC_2020_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A95E01-A195-404F-ABA1-69440F1E91C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED88C6-7FD6-4366-8796-FB944F2ABDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>04.OCT.20</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +903,9 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -959,8 +964,9 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JDBC\JDBC_2020_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED88C6-7FD6-4366-8796-FB944F2ABDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D009F52-C0B7-48F4-BA9A-73CDE8949F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -654,7 +654,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,9 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +780,9 @@
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,7 +798,9 @@
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,7 +816,9 @@
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,7 +834,9 @@
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +852,9 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,7 +870,9 @@
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +888,9 @@
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,7 +906,9 @@
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,7 +924,9 @@
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,7 +942,9 @@
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +960,9 @@
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,7 +978,9 @@
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
   </sheetData>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\JDBC\JDBC_2020_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D009F52-C0B7-48F4-BA9A-73CDE8949F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F3D901-9D6B-4DB6-9BA7-9808732C3496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>NRO</t>
   </si>
@@ -654,7 +654,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +765,9 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -783,7 +785,9 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -801,7 +805,9 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -819,7 +825,9 @@
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -837,7 +845,9 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -855,7 +865,9 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -873,7 +885,9 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -891,7 +905,9 @@
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -909,7 +925,9 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -927,7 +945,9 @@
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -945,7 +965,9 @@
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -963,7 +985,9 @@
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -981,7 +1005,9 @@
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
